--- a/Lectures/Lecture 13/MaximalFlow.xlsx
+++ b/Lectures/Lecture 13/MaximalFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F60391-B2C2-4A38-8426-A842C2177CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681F2233-4CBA-48C6-ADEC-194EEA2F2AA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1950" yWindow="3090" windowWidth="6510" windowHeight="8580" xr2:uid="{28734B32-4A20-9F4F-A28A-B268A320F889}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{28734B32-4A20-9F4F-A28A-B268A320F889}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
